--- a/Banco Central/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
+++ b/Banco Central/11/1/Manufacturero 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>Serie</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2597,7 +2600,7 @@
         <v>82</v>
       </c>
       <c r="B75">
-        <v>93.43000000000001</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -2622,6 +2625,14 @@
       </c>
       <c r="B78">
         <v>107.09</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79">
+        <v>102.36</v>
       </c>
     </row>
   </sheetData>
